--- a/test_images/apples_images/apples_images_mroi/mroi_features.xlsx
+++ b/test_images/apples_images/apples_images_mroi/mroi_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauro\Desktop\Riccardo Carroccio\CV@TR2\test_images\apples_images\apples_images_mroi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FBA3E-4712-4583-A902-013B3C62DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16455F66-4AF6-4548-95D2-D5A281DF1640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="358" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>image_name</t>
   </si>
@@ -385,6 +385,15 @@
   <si>
     <t>&lt; 0,5</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
@@ -445,13 +454,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -467,6 +477,6065 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Mean Intensity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>2266.7168452380952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2055.210318088305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2177.7668059909438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2190.720406681191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.20757347610284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2635.3570099255585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2458.7890407784985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2190.9512276785713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.808447435599902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2279.0052384070482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2502.6172607879926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>544.0199187588704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2575.9027600849258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2040.4050358892559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2503.9659333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.25266666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2289.2340485074628</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2190.8896912611199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.87887168141593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>214.61249293386095</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2333.3517578832912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2102.5995077355838</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>588.72310030395136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2870.6874231032125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>174.24041234140716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.966560509554142</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1516.094704861111</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2417.5149696370568</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.625247079964062</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2051.5033364012884</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2428.6325849514565</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>678.35053435114503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.190030837672516</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1978.1265376414631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>181.65143222039774</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2319.874007936508</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2418.3497295047855</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2136.7945578231293</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>582.91311381804337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66.612329514457173</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2200.5609330371312</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2555.1578804716087</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>63.10619369369369</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2614.2494874184531</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52.397648988518313</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1909.786099102095</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2215.3773134759977</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2114.7877159866416</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1465.6166197183099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1680.91829004329</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49.107351712614872</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>340.54728356591249</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75.089506172839506</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2203.8815668202765</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2411.593894993895</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2442.4465097402599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2049.742330273712</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2426.9692237442923</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2246.3536009901754</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2687.7419866349528</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2216.1124756335284</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2553.1134179161859</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1782.6822439526507</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1712.2062211981568</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2352.4095246356696</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1922.9249264705882</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1235.4284306479428</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1757.4756944444443</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1724.2135748763483</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2231.4884641873277</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2249.4677037037036</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2439.6395797313471</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1906.0718124084026</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2219.0792847503376</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2169.9437709030099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>139.78180988246035</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1334.1343984962407</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2353.2948843271424</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>94.648857142857139</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1831.3166118421052</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2183.5063906390637</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2409.2476318484382</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2503.1853472351518</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1470.4974820143884</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.032844164919638</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1368.2370459401709</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2881.1530634815308</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46.756918164616842</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2358.1678262702931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CB4-4EBA-BB22-CC925B638F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="914097391"/>
+        <c:axId val="914094511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="914097391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914094511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914094511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914097391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Std</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> deviation Intensity</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>896.00642095977366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>989.72104608731615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1122.8782400878295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1285.648831723764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298.97015907693896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850.10196023095125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>965.88444466830992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>959.85676704794901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.208337248123428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1011.9680313312388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>927.6337496195116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>993.26583581622845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>956.14791855957867</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1067.004035509347</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1064.6142286308111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107.64988539712976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1052.806589757726</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1010.7154415369374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.660043400109629</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>562.45056569552423</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1014.2778013504333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1338.6054518504318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>921.68274333578199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>838.39185828049244</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>392.87580971827026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126.31768966578333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1337.1011296178506</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>951.93009161594932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.921055772625586</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1287.4572274969501</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>893.49228570235459</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>971.66644495338062</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.197562853109631</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>835.90711778711511</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>455.59318279765483</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1242.7421646751322</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>945.00843026974576</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1097.5913566454258</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>659.59650485865154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77.608267741672691</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1295.3103287439687</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>941.84629920206623</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.16442409127437</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>885.58606064580783</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55.558958825604904</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1203.6962889475017</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1166.3673715762172</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>971.8267121490062</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>606.08995061251289</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1195.7793793071673</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.511808021385434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>729.16541998901073</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>94.745983477914521</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>990.42924688725213</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>982.55432514830375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>942.52814660756314</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>969.67331338572671</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>915.39133892164693</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>980.81389779674396</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1107.9984587076565</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>975.44355903906683</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1002.2274789652788</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1200.5222022821729</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1257.9026672500117</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>920.91035370188092</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1472.3427092013833</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>483.71056535991005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1244.3477292500909</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1106.7397754418844</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>978.38927381231872</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1001.1458288673422</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>895.55244825310513</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1345.6343948683973</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1338.2582269940372</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>855.74047361261466</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>158.44922573308381</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>517.76987164754496</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>957.42106469073553</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>106.25242482519658</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1150.8079770691108</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>843.00445292737754</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>894.99207195702411</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1114.5701825931267</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1547.9299842873777</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.144333504335279</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1142.2582245352064</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>966.31268196788028</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>52.7243626518203</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>836.62626187232559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1528-41F2-B308-2BC15E07F4F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1032341199"/>
+        <c:axId val="1032341679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1032341199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032341679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1032341679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032341199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Max intensity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3773</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2658</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37CA-45F7-B1B5-AC4765C781B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1032326319"/>
+        <c:axId val="1032322959"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1032326319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032322959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1032322959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032326319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Entropy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>7.5919543418536692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6281911665696605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7617793861311304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2694724795968853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4197875278674603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4205214232096051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7164440276574542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6246028859610462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6399684114343085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6361464506838113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5181565842243696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.155555425507913</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.388282021706214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6273088524542878</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5458873799981578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7784912837985205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6975855826966519</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5866213040732307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8793599889070132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3784453477067204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7566302171905654</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1341362847110119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6895080369720699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2641591017613001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8893047098681794</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7722361860745854</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9984902313621262</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.6803634335491981</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1011629534736658</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.3524824848380153</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5204384744535044</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2289902702824778</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0637243709852084</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.5452708088699412</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5733353154348517</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.5158254466467653</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.6118484349634379</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.7808437134895314</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.6931785343365329</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7222748513226298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4998807244372152</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.6354872094249213</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6394073111083545</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.309208999144694</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.8731019849280273</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4990909815703501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.70326707778481</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6259966319375714</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9330005590402415</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.293075868906695</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9923802409968916</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8849486662619475</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.8412136015332115</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.7847871038233016</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.6248039238371224</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5961535760779224</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.7211953352801963</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.4970609623357154</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.7507840865853836</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.3959939304075561</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7238883672655856</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.6120211856490529</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.7110029861063332</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.0156046421210494</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.575342086065751</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.139036533420251</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.4809629784791269</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.3622543787537804</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.7237742732588792</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.7869213483440092</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.6981808749303795</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.5812485471570294</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.3473019062614071</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3219335163566068</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5928433462719758</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.0709779351052466</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7918563574165436</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6030171393370622</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.9922820480574277</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.7493202293326373</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.5028501547391242</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.6784504008434116</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.6597947002383933</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4641587988910292</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.0891938671417991</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.9928818017073899</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.1665333178208961</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4366318743926456</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.5080035770638043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEF1-4B27-8151-8F855449597B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1032343119"/>
+        <c:axId val="1032348399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1032343119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032348399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1032348399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032343119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Gradient Mean</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>96.099934792905074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.30314033107871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.470528348101908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.845224476083231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.005922545184294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.677554317168301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.702072945292329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.801913665267008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.702136301253397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.057791167357934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.353500081994071</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.175904861046135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.862637254223685</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116.9187909790885</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.374258800268109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.765514876391638</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.671566601995153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.47130575000925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.372981300302882</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.717221467996254</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.499996126385383</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.572459548918445</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.32875335234975</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88.50351733049655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.639216253683529</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.823571938882235</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>101.10625987029469</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83.401188932446814</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.320864226671715</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>110.13437812054131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.197658683358753</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.161585243078662</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.086485795647416</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.428485185294676</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.200311421935815</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102.42679166741485</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>102.74371642983938</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73.9622293758745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.396572735954372</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.963489420045754</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83.835073055874915</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>79.66606179125607</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.189487711523583</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86.336820736280146</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.998315773480268</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.421479774140025</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.500776510122606</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91.18545587851392</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>124.43639106643209</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>85.524239760229378</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.540187402516153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45.55709415836732</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.085540813085512</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>79.608310927616387</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72.340084770944259</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>83.913618450579662</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.89360368044413</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>91.470055901100451</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>80.3640404288669</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77.049106415235983</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79.4438604125084</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80.248595971896748</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.719692323859775</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>105.24855815514994</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82.04681097893274</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>81.643497959454606</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>111.08486772463172</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>113.18300188821797</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>59.368307305080215</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>77.381938974785328</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>91.055800077951929</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71.789145845846178</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89.997917231421269</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>95.959481891332828</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85.39373362524951</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.579957941061778</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>98.028503177490563</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>80.520601882389371</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.580455009941474</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>74.204029177403953</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71.872904864959366</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81.980953034628996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95.798337609487092</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68.914152351105727</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.637976079252883</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>98.167238480832381</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>106.19418278854036</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15.307247899977718</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>100.88721059521465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3CA-4318-BDAF-B370F32760DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1032356079"/>
+        <c:axId val="1032351279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1032356079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032351279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1032351279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032356079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B14723-1D21-82EB-D4EA-99FBA8640266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB9BEE4-6FB6-6B7D-B28A-DCBF49604A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>776287</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7590B7-B46E-9276-ED77-60A73421298F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>881062</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7E8683-C88A-D91A-D541-DB7D204E8B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>995362</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEF4D4D-8286-F728-AC11-4955210F3EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,10 +6855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7205,37 +13274,64 @@
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F92">
+      <c r="F92" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F93">
         <f>AVERAGE(F2:F90)</f>
         <v>1638.0984623095958</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <f>AVERAGE(G2:G90)</f>
         <v>836.36320482674034</v>
       </c>
     </row>
-    <row r="97" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I97" s="3" t="s">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F95" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f>MIN(F2:F90)</f>
+        <v>37.625247079964062</v>
+      </c>
+    </row>
+    <row r="98" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F98" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I98" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I98" s="2" t="s">
+    <row r="99" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f>MAX(F2:F90)</f>
+        <v>2881.1530634815308</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I99" s="1" t="s">
+    <row r="100" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R99" s="5" t="s">
+      <c r="R100" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="S99" s="5" t="s">
+      <c r="S100" s="5" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_images/apples_images/apples_images_mroi/mroi_features.xlsx
+++ b/test_images/apples_images/apples_images_mroi/mroi_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauro\Desktop\Riccardo Carroccio\CV@TR2\test_images\apples_images\apples_images_mroi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16455F66-4AF6-4548-95D2-D5A281DF1640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E2C87B-070F-446C-94B1-8BBB46D08145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="358" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="2565" windowWidth="20460" windowHeight="10770" tabRatio="358" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,26 +527,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1146,26 +1126,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2331,26 +2291,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3548,1229 +3488,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5286,558 +4004,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6858,7 +5025,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13280,6 +11447,10 @@
       <c r="G92" s="6" t="s">
         <v>118</v>
       </c>
+      <c r="Q92">
+        <f>AVERAGE(Q2:Q90)</f>
+        <v>6.9397513896693788</v>
+      </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F93">
